--- a/biology/Zoologie/Chevêchette_du_Tamaulipas/Chevêchette_du_Tamaulipas.xlsx
+++ b/biology/Zoologie/Chevêchette_du_Tamaulipas/Chevêchette_du_Tamaulipas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chev%C3%AAchette_du_Tamaulipas</t>
+          <t>Chevêchette_du_Tamaulipas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucidium sanchezi
 La Chevêchette du Tamaulipas (Glaucidium sanchezi) est une espèce d'oiseaux de la famille des Strigidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chev%C3%AAchette_du_Tamaulipas</t>
+          <t>Chevêchette_du_Tamaulipas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est l'un des plus petits rapaces nocturnes (Strigiformes) connus, mesurant seulement 13,5 cm de longueur. Avec son poids de 53 grammes, il reste cependant légèrement plus lourd que la Chevêchette nimbée (Xenoglaux loweryi) et la Chevêchette des saguaros (Micrathene whitneyi).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chev%C3%AAchette_du_Tamaulipas</t>
+          <t>Chevêchette_du_Tamaulipas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique du Mexique.
 </t>
